--- a/DaySale_2025-05-22_11-55.xlsx
+++ b/DaySale_2025-05-22_11-55.xlsx
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45799.496828526069</v>
+        <v>45799.496968975989</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -841,7 +841,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45799.496828526069</v>
+        <v>45799.496968975989</v>
       </c>
       <c r="K4" s="4"/>
     </row>

--- a/DaySale_2025-05-22_11-55.xlsx
+++ b/DaySale_2025-05-22_11-55.xlsx
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45799.496968975989</v>
+        <v>45799.497113480844</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -841,7 +841,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45799.496968975989</v>
+        <v>45799.497113480844</v>
       </c>
       <c r="K4" s="4"/>
     </row>

--- a/DaySale_2025-05-22_11-55.xlsx
+++ b/DaySale_2025-05-22_11-55.xlsx
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45799.497113480844</v>
+        <v>45799.497195194053</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -841,7 +841,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45799.497113480844</v>
+        <v>45799.497195194053</v>
       </c>
       <c r="K4" s="4"/>
     </row>
